--- a/outputs-r202/g__Eubacterium_Q.xlsx
+++ b/outputs-r202/g__Eubacterium_Q.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ3"/>
+  <dimension ref="A1:AR3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -650,6 +650,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -785,6 +790,11 @@
           <t>s__Eubacterium_Q sp900321215</t>
         </is>
       </c>
+      <c r="AR2" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_Q sp900321215</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -916,6 +926,11 @@
         <v>0.9999689076112735</v>
       </c>
       <c r="AQ3" t="inlineStr">
+        <is>
+          <t>s__Eubacterium_Q ruminantium</t>
+        </is>
+      </c>
+      <c r="AR3" t="inlineStr">
         <is>
           <t>s__Eubacterium_Q ruminantium</t>
         </is>
